--- a/wet_lab_analysis/Tm_assay/Tm_summary_D10_D11_D13_D9.xlsx
+++ b/wet_lab_analysis/Tm_assay/Tm_summary_D10_D11_D13_D9.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Enzyme_Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Replicate_Fits" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,44 +450,323 @@
           <t>SD_Tm</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>N_success</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>N_failed</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.45971943887776</v>
+        <v>53.72945891783567</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.72945891783567</v>
+        <v>47.66452905811623</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>D13</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.66452905811623</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>58.45971943887776</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Enzyme</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Replicate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tm_fit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>σA1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>σA2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>σTm</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>σk</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Tm_derivative</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D10_Rep1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1908.825422989894</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36321.35221710975</v>
+      </c>
+      <c r="E2" t="n">
+        <v>53.70420855449331</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.901355247069104</v>
+      </c>
+      <c r="G2" t="n">
+        <v>54.31525831953883</v>
+      </c>
+      <c r="H2" t="n">
+        <v>723.2449708152225</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1011648373218605</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.05163940107870053</v>
+      </c>
+      <c r="K2" t="n">
+        <v>53.72945891783567</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>D11_Rep1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1535.485040958695</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41694.23974003584</v>
+      </c>
+      <c r="E3" t="n">
+        <v>47.68516144384026</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.942485909987101</v>
+      </c>
+      <c r="G3" t="n">
+        <v>93.72021452083941</v>
+      </c>
+      <c r="H3" t="n">
+        <v>766.4713340986775</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.09893862842929133</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.05882364582294321</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47.66452905811623</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>D13</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D13_Rep1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1250.989184697939</v>
+      </c>
+      <c r="D4" t="n">
+        <v>54920243.26873165</v>
+      </c>
+      <c r="E4" t="n">
+        <v>120.2144503857208</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.3226214174686</v>
+      </c>
+      <c r="G4" t="n">
+        <v>105.4132876943112</v>
+      </c>
+      <c r="H4" t="n">
+        <v>38136533636.35624</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4406.901892001005</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6998157546044425</v>
+      </c>
+      <c r="K4" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D9_Rep1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1640.384162008126</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28294.79736288192</v>
+      </c>
+      <c r="E5" t="n">
+        <v>58.4314309165317</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.115046087643524</v>
+      </c>
+      <c r="G5" t="n">
+        <v>48.36445665877451</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1526.884343186598</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3743068962168787</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1232492513407797</v>
+      </c>
+      <c r="K5" t="n">
+        <v>58.45971943887776</v>
       </c>
     </row>
   </sheetData>

--- a/wet_lab_analysis/Tm_assay/Tm_summary_D10_D11_D13_D9.xlsx
+++ b/wet_lab_analysis/Tm_assay/Tm_summary_D10_D11_D13_D9.xlsx
@@ -625,28 +625,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1908.825422989894</v>
+        <v>1908.825937163699</v>
       </c>
       <c r="D2" t="n">
-        <v>36321.35221710975</v>
+        <v>36321.34471751159</v>
       </c>
       <c r="E2" t="n">
-        <v>53.70420855449331</v>
+        <v>53.70420767050877</v>
       </c>
       <c r="F2" t="n">
-        <v>1.901355247069104</v>
+        <v>1.901354335770313</v>
       </c>
       <c r="G2" t="n">
-        <v>54.31525831953883</v>
+        <v>54.31522539789973</v>
       </c>
       <c r="H2" t="n">
-        <v>723.2449708152225</v>
+        <v>723.2399571755911</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1011648373218605</v>
+        <v>0.1011641650426192</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05163940107870053</v>
+        <v>0.05163922445153006</v>
       </c>
       <c r="K2" t="n">
         <v>53.72945891783567</v>
@@ -664,28 +664,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1535.485040958695</v>
+        <v>1535.473084784658</v>
       </c>
       <c r="D3" t="n">
-        <v>41694.23974003584</v>
+        <v>41694.3429652522</v>
       </c>
       <c r="E3" t="n">
-        <v>47.68516144384026</v>
+        <v>47.68517143212843</v>
       </c>
       <c r="F3" t="n">
-        <v>1.942485909987101</v>
+        <v>1.942498928777681</v>
       </c>
       <c r="G3" t="n">
-        <v>93.72021452083941</v>
+        <v>93.72130950783017</v>
       </c>
       <c r="H3" t="n">
-        <v>766.4713340986775</v>
+        <v>766.5130643378416</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09893862842929133</v>
+        <v>0.09894492111217781</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05882364582294321</v>
+        <v>0.05882598382721741</v>
       </c>
       <c r="K3" t="n">
         <v>47.66452905811623</v>
@@ -703,28 +703,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1250.989184697939</v>
+        <v>1250.991950255139</v>
       </c>
       <c r="D4" t="n">
-        <v>54920243.26873165</v>
+        <v>53601184.93366485</v>
       </c>
       <c r="E4" t="n">
-        <v>120.2144503857208</v>
+        <v>120.0604880670825</v>
       </c>
       <c r="F4" t="n">
-        <v>6.3226214174686</v>
+        <v>6.322595145913094</v>
       </c>
       <c r="G4" t="n">
-        <v>105.4132876943112</v>
+        <v>105.4085800561079</v>
       </c>
       <c r="H4" t="n">
-        <v>38136533636.35624</v>
+        <v>36300351527.56899</v>
       </c>
       <c r="I4" t="n">
-        <v>4406.901892001005</v>
+        <v>4299.189270187495</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6998157546044425</v>
+        <v>0.6997145067528616</v>
       </c>
       <c r="K4" t="n">
         <v>68.59999999999999</v>
@@ -742,28 +742,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1640.384162008126</v>
+        <v>1640.379973446184</v>
       </c>
       <c r="D5" t="n">
-        <v>28294.79736288192</v>
+        <v>28294.94598662963</v>
       </c>
       <c r="E5" t="n">
-        <v>58.4314309165317</v>
+        <v>58.43146803447064</v>
       </c>
       <c r="F5" t="n">
-        <v>3.115046087643524</v>
+        <v>3.115062911581533</v>
       </c>
       <c r="G5" t="n">
-        <v>48.36445665877451</v>
+        <v>48.36492329616714</v>
       </c>
       <c r="H5" t="n">
-        <v>1526.884343186598</v>
+        <v>1526.995997294546</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3743068962168787</v>
+        <v>0.3743305714159207</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1232492513407797</v>
+        <v>0.123253182562535</v>
       </c>
       <c r="K5" t="n">
         <v>58.45971943887776</v>
